--- a/internewshid/chn_spreadsheet/tests/test_files/sample_kobo_master.xlsx
+++ b/internewshid/chn_spreadsheet/tests/test_files/sample_kobo_master.xlsx
@@ -150,7 +150,18 @@
       </text>
     </comment>
     <comment ref="J1" authorId="0">
-      <text/>
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+      </text>
     </comment>
     <comment ref="L2" authorId="0">
       <text>
@@ -223,7 +234,7 @@
     <t xml:space="preserve">Ennumerator</t>
   </si>
   <si>
-    <t xml:space="preserve">Source</t>
+    <t xml:space="preserve">Collection Type</t>
   </si>
   <si>
     <t xml:space="preserve">2018-10-01T12:31:38.287+06</t>
@@ -259,7 +270,7 @@
     <t xml:space="preserve">osman</t>
   </si>
   <si>
-    <t xml:space="preserve">sample source</t>
+    <t xml:space="preserve">sample collection type</t>
   </si>
   <si>
     <t xml:space="preserve">2018-08-09T12:14:26.766+06</t>
@@ -562,7 +573,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
